--- a/inputs/master_templates/30_playoffs.xlsx
+++ b/inputs/master_templates/30_playoffs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/inputs/master_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004ercu\Desktop\python\cornerstone\master templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DC7710-B43B-7744-80EE-2FAB47F5062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4D313E-3366-4D82-935A-89E657F2EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2114AE23-4723-3F48-88AE-F53CC59B0CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2114AE23-4723-3F48-88AE-F53CC59B0CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="tournament format" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -470,9 +472,6 @@
     <t>playoff schedule code 1</t>
   </si>
   <si>
-    <t>1,11,3,9,5,7,12,2,10,4,8,6,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30</t>
-  </si>
-  <si>
     <t>playoff schedule code 2</t>
   </si>
   <si>
@@ -489,6 +488,9 @@
   </si>
   <si>
     <t>crossover</t>
+  </si>
+  <si>
+    <t>1,12,4,9,5,8,2,11,3,10,6,7,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30</t>
   </si>
 </sst>
 </file>
@@ -582,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -696,13 +698,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -772,6 +785,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,11 +1108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE5B6E-5562-4B4B-9B01-3722A29F012F}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="A8:C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="42.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
@@ -1119,7 +1133,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>74</v>
@@ -1130,7 +1144,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>75</v>
@@ -1141,7 +1155,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>76</v>
@@ -1182,7 +1196,7 @@
     </row>
     <row r="8" spans="1:3" ht="40" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>78</v>
@@ -1206,8 +1220,8 @@
       <c r="A10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>136</v>
+      <c r="B10" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>79</v>
@@ -1215,10 +1229,10 @@
     </row>
     <row r="11" spans="1:3" ht="40" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>79</v>
@@ -1239,7 +1253,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="28.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.77734375" style="3" customWidth="1"/>
@@ -1818,7 +1832,7 @@
   <sheetViews>
     <sheetView zoomScale="244" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" customWidth="1"/>
@@ -1907,7 +1921,7 @@
   <sheetViews>
     <sheetView zoomScale="184" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
@@ -2118,7 +2132,7 @@
   <sheetViews>
     <sheetView zoomScale="184" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
@@ -2238,7 +2252,7 @@
   <sheetViews>
     <sheetView zoomScale="184" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="2" max="2" width="47.109375" customWidth="1"/>
